--- a/DashboardBack/Case tracking for CS class.xlsx
+++ b/DashboardBack/Case tracking for CS class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dianezg\Box\Diane@CGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetev\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EAAE4E-8393-4A34-A0BB-12214ED3405F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1F68F11-C4C6-42DA-BB94-F66C30750009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current H-1B cases" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="470">
   <si>
     <t>First Name</t>
   </si>
@@ -1289,9 +1289,6 @@
   </si>
   <si>
     <t>In-house, from IES list</t>
-  </si>
-  <si>
-    <t>Start date</t>
   </si>
   <si>
     <t>Sosti</t>
@@ -1519,6 +1516,135 @@
   </si>
   <si>
     <t>Department Advisor/PI/chair</t>
+  </si>
+  <si>
+    <t>Khan</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male	</t>
+  </si>
+  <si>
+    <t>J-1 Scholar</t>
+  </si>
+  <si>
+    <t>Okoye</t>
+  </si>
+  <si>
+    <t>Chidi</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>F-1 Student</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Dina</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t>Farid</t>
+  </si>
+  <si>
+    <t>J-1 Research Scholar</t>
+  </si>
+  <si>
+    <t>Owens</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Linguistics</t>
+  </si>
+  <si>
+    <t>Tanaka</t>
+  </si>
+  <si>
+    <t>Hiro</t>
+  </si>
+  <si>
+    <t>Mechanical Eng</t>
+  </si>
+  <si>
+    <t>Rossi</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>J-1 Student</t>
+  </si>
+  <si>
+    <t>Abdi</t>
+  </si>
+  <si>
+    <t>Jamal</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lopez</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patel</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Ivanov</t>
+  </si>
+  <si>
+    <t>Nikolai</t>
+  </si>
+  <si>
+    <t>Information Systems</t>
+  </si>
+  <si>
+    <t>Statistics</t>
   </si>
 </sst>
 </file>
@@ -2758,42 +2884,42 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:CD120"/>
+  <dimension ref="A1:CD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="157" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="157" customWidth="1"/>
-    <col min="3" max="4" width="28.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="157" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" style="157" customWidth="1"/>
+    <col min="3" max="4" width="28.88671875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="11" customWidth="1"/>
     <col min="7" max="8" width="14" style="11" customWidth="1"/>
     <col min="9" max="9" width="52" style="157" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="83" style="166" customWidth="1"/>
-    <col min="11" max="11" width="43.85546875" style="167" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="168" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" style="169" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" style="169" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="170" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="168" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="11" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" style="157" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="165" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" style="165" customWidth="1"/>
-    <col min="21" max="21" width="28.140625" style="165" customWidth="1"/>
-    <col min="22" max="23" width="20.140625" style="165" customWidth="1"/>
+    <col min="11" max="11" width="43.88671875" style="167" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" style="168" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="169" customWidth="1"/>
+    <col min="14" max="14" width="25.44140625" style="169" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="170" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" style="168" customWidth="1"/>
+    <col min="17" max="17" width="15.88671875" style="11" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" style="157" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" style="165" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" style="165" customWidth="1"/>
+    <col min="21" max="21" width="28.109375" style="165" customWidth="1"/>
+    <col min="22" max="23" width="20.109375" style="165" customWidth="1"/>
     <col min="24" max="24" width="22" style="165" customWidth="1"/>
-    <col min="25" max="26" width="13.42578125" style="155" customWidth="1"/>
+    <col min="25" max="26" width="13.44140625" style="155" customWidth="1"/>
     <col min="27" max="27" width="37" style="165" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="11"/>
+    <col min="28" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:82" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>339</v>
       </c>
@@ -2822,7 +2948,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>15</v>
@@ -2831,19 +2957,19 @@
         <v>371</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>387</v>
+        <v>459</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>372</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>373</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>374</v>
@@ -2858,25 +2984,25 @@
         <v>62</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="W1" s="14" t="s">
         <v>376</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y1" s="17" t="s">
         <v>377</v>
       </c>
       <c r="Z1" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA1" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AA1" s="14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:82" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:82" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>364</v>
       </c>
@@ -2892,7 +3018,9 @@
         <v>33</v>
       </c>
       <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="H2" s="21" t="s">
+        <v>438</v>
+      </c>
       <c r="I2" s="21" t="s">
         <v>171</v>
       </c>
@@ -2993,7 +3121,7 @@
       <c r="CC2" s="33"/>
       <c r="CD2" s="33"/>
     </row>
-    <row r="3" spans="1:82" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:82" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>364</v>
       </c>
@@ -3005,7 +3133,9 @@
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="H3" s="21" t="s">
+        <v>438</v>
+      </c>
       <c r="I3" s="21" t="s">
         <v>18</v>
       </c>
@@ -3085,7 +3215,7 @@
       <c r="CC3" s="33"/>
       <c r="CD3" s="33"/>
     </row>
-    <row r="4" spans="1:82" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>340</v>
       </c>
@@ -3101,7 +3231,9 @@
         <v>24</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="I4" s="35" t="s">
         <v>171</v>
       </c>
@@ -3145,7 +3277,7 @@
         <v>Philosophy</v>
       </c>
     </row>
-    <row r="5" spans="1:82" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>340</v>
       </c>
@@ -3161,7 +3293,9 @@
         <v>24</v>
       </c>
       <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="H5" s="36" t="s">
+        <v>438</v>
+      </c>
       <c r="I5" s="36" t="s">
         <v>8</v>
       </c>
@@ -3202,7 +3336,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:82" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>340</v>
       </c>
@@ -3218,7 +3352,9 @@
         <v>24</v>
       </c>
       <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="H6" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="I6" s="35" t="s">
         <v>8</v>
       </c>
@@ -3267,7 +3403,7 @@
         <v>Philosophy</v>
       </c>
     </row>
-    <row r="7" spans="1:82" s="33" customFormat="1" ht="345" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:82" s="33" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>340</v>
       </c>
@@ -3283,7 +3419,9 @@
         <v>24</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="I7" s="35" t="s">
         <v>186</v>
       </c>
@@ -3315,7 +3453,7 @@
         <v>Philosophy</v>
       </c>
     </row>
-    <row r="8" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>341</v>
       </c>
@@ -3358,10 +3496,10 @@
         <v>148</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U8" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="V8" s="29" t="s">
         <v>241</v>
@@ -3437,7 +3575,7 @@
       <c r="CC8" s="11"/>
       <c r="CD8" s="11"/>
     </row>
-    <row r="9" spans="1:82" s="34" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" s="34" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>341</v>
       </c>
@@ -3458,7 +3596,7 @@
         <v>18</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K9" s="58"/>
       <c r="L9" s="24"/>
@@ -3533,7 +3671,7 @@
       <c r="CC9" s="33"/>
       <c r="CD9" s="33"/>
     </row>
-    <row r="10" spans="1:82" s="33" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:82" s="33" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>342</v>
       </c>
@@ -3549,7 +3687,9 @@
         <v>382</v>
       </c>
       <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="I10" s="35" t="s">
         <v>171</v>
       </c>
@@ -3591,7 +3731,7 @@
         <v>Dance</v>
       </c>
     </row>
-    <row r="11" spans="1:82" s="33" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" s="33" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>342</v>
       </c>
@@ -3607,7 +3747,9 @@
         <v>382</v>
       </c>
       <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="I11" s="35" t="s">
         <v>17</v>
       </c>
@@ -3651,7 +3793,7 @@
         <v>Dance</v>
       </c>
     </row>
-    <row r="12" spans="1:82" s="33" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" s="33" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>342</v>
       </c>
@@ -3667,7 +3809,9 @@
         <v>382</v>
       </c>
       <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="I12" s="35" t="s">
         <v>383</v>
       </c>
@@ -3711,7 +3855,7 @@
         <v>Dance</v>
       </c>
     </row>
-    <row r="13" spans="1:82" s="33" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:82" s="33" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>342</v>
       </c>
@@ -3727,7 +3871,9 @@
         <v>382</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="I13" s="35" t="s">
         <v>380</v>
       </c>
@@ -3774,7 +3920,7 @@
         <v>Dance</v>
       </c>
     </row>
-    <row r="14" spans="1:82" s="33" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" s="33" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>342</v>
       </c>
@@ -3790,7 +3936,9 @@
         <v>382</v>
       </c>
       <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="I14" s="35" t="s">
         <v>18</v>
       </c>
@@ -3817,7 +3965,7 @@
       <c r="Z14" s="45"/>
       <c r="AA14" s="62"/>
     </row>
-    <row r="15" spans="1:82" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>300</v>
       </c>
@@ -3833,7 +3981,9 @@
         <v>37</v>
       </c>
       <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
+      <c r="H15" s="63" t="s">
+        <v>429</v>
+      </c>
       <c r="I15" s="57" t="s">
         <v>181</v>
       </c>
@@ -3934,7 +4084,7 @@
       <c r="CC15" s="33"/>
       <c r="CD15" s="33"/>
     </row>
-    <row r="16" spans="1:82" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:82" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>300</v>
       </c>
@@ -3946,7 +4096,9 @@
       <c r="E16" s="69"/>
       <c r="F16" s="69"/>
       <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
+      <c r="H16" s="69" t="s">
+        <v>429</v>
+      </c>
       <c r="I16" s="57" t="s">
         <v>18</v>
       </c>
@@ -4026,7 +4178,7 @@
       <c r="CC16" s="71"/>
       <c r="CD16" s="71"/>
     </row>
-    <row r="17" spans="1:82" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:82" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>301</v>
       </c>
@@ -4075,7 +4227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>301</v>
       </c>
@@ -4119,7 +4271,7 @@
       <c r="Z18" s="45"/>
       <c r="AA18" s="62"/>
     </row>
-    <row r="19" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>301</v>
       </c>
@@ -4158,12 +4310,12 @@
       <c r="Z19" s="45"/>
       <c r="AA19" s="62"/>
     </row>
-    <row r="20" spans="1:82" s="34" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:82" s="34" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>191</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="75"/>
@@ -4252,7 +4404,7 @@
       <c r="CC20" s="33"/>
       <c r="CD20" s="33"/>
     </row>
-    <row r="21" spans="1:82" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:82" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
         <v>217</v>
       </c>
@@ -4268,7 +4420,9 @@
         <v>33</v>
       </c>
       <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
+      <c r="H21" s="37" t="s">
+        <v>438</v>
+      </c>
       <c r="I21" s="77" t="s">
         <v>51</v>
       </c>
@@ -4306,7 +4460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
         <v>217</v>
       </c>
@@ -4322,7 +4476,9 @@
         <v>33</v>
       </c>
       <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="H22" s="37" t="s">
+        <v>438</v>
+      </c>
       <c r="I22" s="77" t="s">
         <v>179</v>
       </c>
@@ -4347,7 +4503,7 @@
       <c r="Z22" s="45"/>
       <c r="AA22" s="81"/>
     </row>
-    <row r="23" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="s">
         <v>217</v>
       </c>
@@ -4361,7 +4517,9 @@
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="H23" s="37" t="s">
+        <v>438</v>
+      </c>
       <c r="I23" s="77" t="s">
         <v>18</v>
       </c>
@@ -4388,7 +4546,7 @@
       <c r="Z23" s="45"/>
       <c r="AA23" s="81"/>
     </row>
-    <row r="24" spans="1:82" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:82" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
         <v>35</v>
       </c>
@@ -4404,7 +4562,9 @@
         <v>5</v>
       </c>
       <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
+      <c r="H24" s="63" t="s">
+        <v>438</v>
+      </c>
       <c r="I24" s="57" t="s">
         <v>165</v>
       </c>
@@ -4492,7 +4652,7 @@
       <c r="CC24" s="33"/>
       <c r="CD24" s="33"/>
     </row>
-    <row r="25" spans="1:82" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:82" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
         <v>35</v>
       </c>
@@ -4508,7 +4668,9 @@
         <v>5</v>
       </c>
       <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
+      <c r="H25" s="63" t="s">
+        <v>438</v>
+      </c>
       <c r="I25" s="57" t="s">
         <v>8</v>
       </c>
@@ -4601,7 +4763,7 @@
       <c r="CC25" s="33"/>
       <c r="CD25" s="33"/>
     </row>
-    <row r="26" spans="1:82" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:82" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
         <v>35</v>
       </c>
@@ -4613,7 +4775,9 @@
       <c r="E26" s="64"/>
       <c r="F26" s="57"/>
       <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
+      <c r="H26" s="63" t="s">
+        <v>438</v>
+      </c>
       <c r="I26" s="57" t="s">
         <v>18</v>
       </c>
@@ -4691,7 +4855,7 @@
       <c r="CC26" s="33"/>
       <c r="CD26" s="33"/>
     </row>
-    <row r="27" spans="1:82" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:82" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>218</v>
       </c>
@@ -4755,7 +4919,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:82" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:82" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>218</v>
       </c>
@@ -4774,7 +4938,7 @@
         <v>18</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K28" s="39"/>
       <c r="L28" s="40"/>
@@ -4794,7 +4958,7 @@
       <c r="Z28" s="45"/>
       <c r="AA28" s="61"/>
     </row>
-    <row r="29" spans="1:82" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:82" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="75" t="s">
         <v>354</v>
       </c>
@@ -4907,7 +5071,7 @@
       <c r="CC29" s="33"/>
       <c r="CD29" s="33"/>
     </row>
-    <row r="30" spans="1:82" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:82" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="75" t="s">
         <v>354</v>
       </c>
@@ -4926,7 +5090,7 @@
         <v>18</v>
       </c>
       <c r="J30" s="76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K30" s="83"/>
       <c r="L30" s="66"/>
@@ -5003,7 +5167,7 @@
       <c r="CC30" s="33"/>
       <c r="CD30" s="33"/>
     </row>
-    <row r="31" spans="1:82" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:82" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="86" t="s">
         <v>271</v>
       </c>
@@ -5055,7 +5219,7 @@
       <c r="Z31" s="45"/>
       <c r="AA31" s="62"/>
     </row>
-    <row r="32" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="86" t="s">
         <v>271</v>
       </c>
@@ -5092,7 +5256,7 @@
       <c r="Z32" s="45"/>
       <c r="AA32" s="62"/>
     </row>
-    <row r="33" spans="1:82" s="99" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:82" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="89" t="s">
         <v>192</v>
       </c>
@@ -5196,7 +5360,7 @@
       <c r="CC33" s="33"/>
       <c r="CD33" s="33"/>
     </row>
-    <row r="34" spans="1:82" s="99" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:82" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="89" t="s">
         <v>192</v>
       </c>
@@ -5303,7 +5467,7 @@
       <c r="CC34" s="33"/>
       <c r="CD34" s="33"/>
     </row>
-    <row r="35" spans="1:82" s="99" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:82" s="99" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="89" t="s">
         <v>192</v>
       </c>
@@ -5395,7 +5559,7 @@
       <c r="CC35" s="33"/>
       <c r="CD35" s="33"/>
     </row>
-    <row r="36" spans="1:82" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:82" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>43</v>
       </c>
@@ -5432,7 +5596,7 @@
         <v>147</v>
       </c>
       <c r="T36" s="68" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U36" s="68" t="s">
         <v>274</v>
@@ -5507,7 +5671,7 @@
       <c r="CC36" s="33"/>
       <c r="CD36" s="33"/>
     </row>
-    <row r="37" spans="1:82" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:82" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
         <v>43</v>
       </c>
@@ -5544,7 +5708,7 @@
         <v>147</v>
       </c>
       <c r="T37" s="68" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U37" s="68" t="s">
         <v>274</v>
@@ -5619,7 +5783,7 @@
       <c r="CC37" s="33"/>
       <c r="CD37" s="33"/>
     </row>
-    <row r="38" spans="1:82" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:82" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
         <v>43</v>
       </c>
@@ -5659,7 +5823,7 @@
         <v>147</v>
       </c>
       <c r="T38" s="68" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U38" s="68" t="s">
         <v>274</v>
@@ -5734,7 +5898,7 @@
       <c r="CC38" s="33"/>
       <c r="CD38" s="33"/>
     </row>
-    <row r="39" spans="1:82" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:82" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
         <v>43</v>
       </c>
@@ -5830,7 +5994,7 @@
       <c r="CC39" s="33"/>
       <c r="CD39" s="33"/>
     </row>
-    <row r="40" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>353</v>
       </c>
@@ -5869,7 +6033,7 @@
       <c r="S40" s="43"/>
       <c r="T40" s="43"/>
       <c r="U40" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="V40" s="43"/>
       <c r="W40" s="43"/>
@@ -5882,7 +6046,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:82" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:82" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
         <v>353</v>
       </c>
@@ -5921,7 +6085,7 @@
       <c r="Z41" s="45"/>
       <c r="AA41" s="62"/>
     </row>
-    <row r="42" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
         <v>349</v>
       </c>
@@ -5937,7 +6101,9 @@
         <v>47</v>
       </c>
       <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
+      <c r="H42" s="63" t="s">
+        <v>429</v>
+      </c>
       <c r="I42" s="57" t="s">
         <v>171</v>
       </c>
@@ -6033,7 +6199,7 @@
       <c r="CC42" s="11"/>
       <c r="CD42" s="11"/>
     </row>
-    <row r="43" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
         <v>349</v>
       </c>
@@ -6049,7 +6215,9 @@
         <v>47</v>
       </c>
       <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
+      <c r="H43" s="21" t="s">
+        <v>429</v>
+      </c>
       <c r="I43" s="21" t="s">
         <v>8</v>
       </c>
@@ -6147,7 +6315,7 @@
       <c r="CC43" s="11"/>
       <c r="CD43" s="11"/>
     </row>
-    <row r="44" spans="1:82" s="56" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:82" s="56" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
         <v>349</v>
       </c>
@@ -6163,7 +6331,9 @@
         <v>47</v>
       </c>
       <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
+      <c r="H44" s="21" t="s">
+        <v>429</v>
+      </c>
       <c r="I44" s="21" t="s">
         <v>381</v>
       </c>
@@ -6204,7 +6374,7 @@
         <v>250</v>
       </c>
       <c r="AA44" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AB44" s="11"/>
       <c r="AC44" s="11"/>
@@ -6262,7 +6432,7 @@
       <c r="CC44" s="11"/>
       <c r="CD44" s="11"/>
     </row>
-    <row r="45" spans="1:82" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:82" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
         <v>349</v>
       </c>
@@ -6278,7 +6448,9 @@
         <v>47</v>
       </c>
       <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
+      <c r="H45" s="21" t="s">
+        <v>429</v>
+      </c>
       <c r="I45" s="21" t="s">
         <v>18</v>
       </c>
@@ -6362,7 +6534,7 @@
       <c r="CC45" s="33"/>
       <c r="CD45" s="33"/>
     </row>
-    <row r="46" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
         <v>351</v>
       </c>
@@ -6378,7 +6550,9 @@
         <v>27</v>
       </c>
       <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
+      <c r="H46" s="36" t="s">
+        <v>438</v>
+      </c>
       <c r="I46" s="35" t="s">
         <v>366</v>
       </c>
@@ -6401,7 +6575,7 @@
       <c r="S46" s="46"/>
       <c r="T46" s="46"/>
       <c r="U46" s="46" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="V46" s="46"/>
       <c r="W46" s="46"/>
@@ -6410,7 +6584,7 @@
       <c r="Z46" s="45"/>
       <c r="AA46" s="46"/>
     </row>
-    <row r="47" spans="1:82" s="33" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:82" s="33" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
         <v>351</v>
       </c>
@@ -6426,12 +6600,14 @@
         <v>27</v>
       </c>
       <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
+      <c r="H47" s="36" t="s">
+        <v>438</v>
+      </c>
       <c r="I47" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J47" s="47" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K47" s="39"/>
       <c r="L47" s="49"/>
@@ -6451,7 +6627,7 @@
       <c r="Z47" s="45"/>
       <c r="AA47" s="46"/>
     </row>
-    <row r="48" spans="1:82" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:82" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="57" t="s">
         <v>344</v>
       </c>
@@ -6566,7 +6742,7 @@
       <c r="CC48" s="33"/>
       <c r="CD48" s="33"/>
     </row>
-    <row r="49" spans="1:82" s="34" customFormat="1" ht="210" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:82" s="34" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A49" s="57" t="s">
         <v>344</v>
       </c>
@@ -6585,7 +6761,7 @@
         <v>18</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K49" s="65"/>
       <c r="L49" s="24"/>
@@ -6660,7 +6836,7 @@
       <c r="CC49" s="33"/>
       <c r="CD49" s="33"/>
     </row>
-    <row r="50" spans="1:82" s="108" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:82" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>344</v>
       </c>
@@ -6676,7 +6852,9 @@
         <v>23</v>
       </c>
       <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="H50" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="I50" s="35" t="s">
         <v>366</v>
       </c>
@@ -6712,7 +6890,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:82" s="108" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:82" s="108" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
         <v>344</v>
       </c>
@@ -6728,12 +6906,14 @@
         <v>23</v>
       </c>
       <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
+      <c r="H51" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="I51" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J51" s="38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K51" s="39"/>
       <c r="L51" s="40"/>
@@ -6757,12 +6937,12 @@
       <c r="Z51" s="45"/>
       <c r="AA51" s="62"/>
     </row>
-    <row r="52" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C52" s="69"/>
       <c r="D52" s="69"/>
@@ -6870,12 +7050,12 @@
       <c r="CC52" s="11"/>
       <c r="CD52" s="11"/>
     </row>
-    <row r="53" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="57" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C53" s="69"/>
       <c r="D53" s="69"/>
@@ -6966,12 +7146,12 @@
       <c r="CC53" s="11"/>
       <c r="CD53" s="11"/>
     </row>
-    <row r="54" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="57" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C54" s="69"/>
       <c r="D54" s="69"/>
@@ -7060,12 +7240,12 @@
       <c r="CC54" s="11"/>
       <c r="CD54" s="11"/>
     </row>
-    <row r="55" spans="1:82" ht="45" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:82" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
@@ -7099,7 +7279,7 @@
         <v>173</v>
       </c>
       <c r="T55" s="46" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U55" s="46" t="s">
         <v>11</v>
@@ -7121,12 +7301,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A56" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B56" s="53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
@@ -7169,12 +7349,12 @@
       <c r="Z56" s="45"/>
       <c r="AA56" s="46"/>
     </row>
-    <row r="57" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A57" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B57" s="53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
@@ -7216,7 +7396,7 @@
       </c>
       <c r="AA57" s="46"/>
     </row>
-    <row r="58" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>337</v>
       </c>
@@ -7234,7 +7414,9 @@
       <c r="G58" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="H58" s="21"/>
+      <c r="H58" s="21" t="s">
+        <v>438</v>
+      </c>
       <c r="I58" s="21" t="s">
         <v>379</v>
       </c>
@@ -7259,7 +7441,7 @@
         <v>143</v>
       </c>
       <c r="T58" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U58" s="68" t="s">
         <v>142</v>
@@ -7334,7 +7516,7 @@
       <c r="CC58" s="11"/>
       <c r="CD58" s="11"/>
     </row>
-    <row r="59" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>337</v>
       </c>
@@ -7350,7 +7532,9 @@
         <v>229</v>
       </c>
       <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
+      <c r="H59" s="21" t="s">
+        <v>438</v>
+      </c>
       <c r="I59" s="19" t="s">
         <v>8</v>
       </c>
@@ -7376,7 +7560,7 @@
         <v>143</v>
       </c>
       <c r="T59" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U59" s="68" t="s">
         <v>142</v>
@@ -7451,7 +7635,7 @@
       <c r="CC59" s="11"/>
       <c r="CD59" s="11"/>
     </row>
-    <row r="60" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>337</v>
       </c>
@@ -7463,7 +7647,9 @@
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
+      <c r="H60" s="21" t="s">
+        <v>438</v>
+      </c>
       <c r="I60" s="75" t="s">
         <v>18</v>
       </c>
@@ -7541,7 +7727,7 @@
       <c r="CC60" s="11"/>
       <c r="CD60" s="11"/>
     </row>
-    <row r="61" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A61" s="86" t="s">
         <v>336</v>
       </c>
@@ -7557,7 +7743,9 @@
         <v>5</v>
       </c>
       <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="H61" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="I61" s="86" t="s">
         <v>51</v>
       </c>
@@ -7591,7 +7779,7 @@
       <c r="Z61" s="45"/>
       <c r="AA61" s="81"/>
     </row>
-    <row r="62" spans="1:82" ht="30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:82" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="86" t="s">
         <v>336</v>
       </c>
@@ -7603,7 +7791,9 @@
       <c r="E62" s="37"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="H62" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="I62" s="86" t="s">
         <v>18</v>
       </c>
@@ -7628,7 +7818,7 @@
       <c r="Z62" s="45"/>
       <c r="AA62" s="81"/>
     </row>
-    <row r="63" spans="1:82" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:82" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="75" t="s">
         <v>334</v>
       </c>
@@ -7747,7 +7937,7 @@
       <c r="CC63" s="11"/>
       <c r="CD63" s="11"/>
     </row>
-    <row r="64" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="75" t="s">
         <v>334</v>
       </c>
@@ -7841,7 +8031,7 @@
       <c r="CC64" s="11"/>
       <c r="CD64" s="11"/>
     </row>
-    <row r="65" spans="1:82" ht="45" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:82" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="86" t="s">
         <v>203</v>
       </c>
@@ -7857,12 +8047,14 @@
         <v>5</v>
       </c>
       <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
+      <c r="H65" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="I65" s="86" t="s">
         <v>51</v>
       </c>
       <c r="J65" s="78" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K65" s="87"/>
       <c r="L65" s="88"/>
@@ -7897,7 +8089,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:82" ht="285" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:82" ht="285" x14ac:dyDescent="0.25">
       <c r="A66" s="86" t="s">
         <v>203</v>
       </c>
@@ -7911,7 +8103,9 @@
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="H66" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="I66" s="86" t="s">
         <v>18</v>
       </c>
@@ -7936,7 +8130,7 @@
       <c r="Z66" s="45"/>
       <c r="AA66" s="81"/>
     </row>
-    <row r="67" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="75" t="s">
         <v>330</v>
       </c>
@@ -7952,7 +8146,9 @@
         <v>5</v>
       </c>
       <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
+      <c r="H67" s="63" t="s">
+        <v>429</v>
+      </c>
       <c r="I67" s="75" t="s">
         <v>165</v>
       </c>
@@ -8041,7 +8237,7 @@
       <c r="CC67" s="11"/>
       <c r="CD67" s="11"/>
     </row>
-    <row r="68" spans="1:82" s="56" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:82" s="56" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="75" t="s">
         <v>330</v>
       </c>
@@ -8055,7 +8251,9 @@
       </c>
       <c r="F68" s="63"/>
       <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
+      <c r="H68" s="63" t="s">
+        <v>429</v>
+      </c>
       <c r="I68" s="75" t="s">
         <v>18</v>
       </c>
@@ -8135,7 +8333,7 @@
       <c r="CC68" s="11"/>
       <c r="CD68" s="11"/>
     </row>
-    <row r="69" spans="1:82" ht="60" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:82" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="86" t="s">
         <v>312</v>
       </c>
@@ -8151,7 +8349,9 @@
         <v>284</v>
       </c>
       <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="H69" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="I69" s="86" t="s">
         <v>165</v>
       </c>
@@ -8187,7 +8387,7 @@
       </c>
       <c r="AA69" s="81"/>
     </row>
-    <row r="70" spans="1:82" ht="30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:82" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="86" t="s">
         <v>312</v>
       </c>
@@ -8201,7 +8401,9 @@
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+      <c r="H70" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="I70" s="53" t="s">
         <v>18</v>
       </c>
@@ -8228,7 +8430,7 @@
       <c r="Z70" s="45"/>
       <c r="AA70" s="81"/>
     </row>
-    <row r="71" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="75" t="s">
         <v>176</v>
       </c>
@@ -8344,7 +8546,7 @@
       <c r="CC71" s="11"/>
       <c r="CD71" s="11"/>
     </row>
-    <row r="72" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="75" t="s">
         <v>176</v>
       </c>
@@ -8363,7 +8565,7 @@
         <v>18</v>
       </c>
       <c r="J72" s="102" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K72" s="117"/>
       <c r="L72" s="84"/>
@@ -8438,7 +8640,7 @@
       <c r="CC72" s="11"/>
       <c r="CD72" s="11"/>
     </row>
-    <row r="73" spans="1:82" ht="30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:82" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="53" t="s">
         <v>232</v>
       </c>
@@ -8492,7 +8694,7 @@
       </c>
       <c r="AA73" s="46"/>
     </row>
-    <row r="74" spans="1:82" ht="45" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:82" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="53" t="s">
         <v>232</v>
       </c>
@@ -8511,7 +8713,7 @@
         <v>18</v>
       </c>
       <c r="J74" s="47" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K74" s="109"/>
       <c r="L74" s="49"/>
@@ -8531,12 +8733,12 @@
       <c r="Z74" s="45"/>
       <c r="AA74" s="46"/>
     </row>
-    <row r="75" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C75" s="69"/>
       <c r="D75" s="69"/>
@@ -8640,12 +8842,12 @@
       <c r="CC75" s="11"/>
       <c r="CD75" s="11"/>
     </row>
-    <row r="76" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C76" s="69"/>
       <c r="D76" s="69"/>
@@ -8732,7 +8934,7 @@
       <c r="CC76" s="11"/>
       <c r="CD76" s="11"/>
     </row>
-    <row r="77" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A77" s="119" t="s">
         <v>325</v>
       </c>
@@ -8746,7 +8948,9 @@
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
+      <c r="H77" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="I77" s="120" t="s">
         <v>131</v>
       </c>
@@ -8780,7 +8984,7 @@
       </c>
       <c r="AA77" s="62"/>
     </row>
-    <row r="78" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A78" s="119" t="s">
         <v>325</v>
       </c>
@@ -8794,7 +8998,9 @@
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="H78" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="I78" s="120" t="s">
         <v>8</v>
       </c>
@@ -8821,7 +9027,7 @@
       <c r="Z78" s="45"/>
       <c r="AA78" s="62"/>
     </row>
-    <row r="79" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A79" s="119" t="s">
         <v>325</v>
       </c>
@@ -8833,12 +9039,14 @@
       <c r="E79" s="36"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
+      <c r="H79" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="I79" s="53" t="s">
         <v>186</v>
       </c>
       <c r="J79" s="47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K79" s="121"/>
       <c r="L79" s="88"/>
@@ -8858,7 +9066,7 @@
       <c r="Z79" s="45"/>
       <c r="AA79" s="62"/>
     </row>
-    <row r="80" spans="1:82" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:82" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="122" t="s">
         <v>326</v>
       </c>
@@ -8874,7 +9082,9 @@
         <v>289</v>
       </c>
       <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
+      <c r="H80" s="63" t="s">
+        <v>438</v>
+      </c>
       <c r="I80" s="123" t="s">
         <v>131</v>
       </c>
@@ -8914,7 +9124,7 @@
         <v>6</v>
       </c>
       <c r="AA80" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AB80" s="11"/>
       <c r="AC80" s="11"/>
@@ -8972,7 +9182,7 @@
       <c r="CC80" s="11"/>
       <c r="CD80" s="11"/>
     </row>
-    <row r="81" spans="1:82" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:82" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="122" t="s">
         <v>326</v>
       </c>
@@ -8984,7 +9194,9 @@
       <c r="E81" s="21"/>
       <c r="F81" s="63"/>
       <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
+      <c r="H81" s="63" t="s">
+        <v>438</v>
+      </c>
       <c r="I81" s="19" t="s">
         <v>186</v>
       </c>
@@ -9064,7 +9276,7 @@
       <c r="CC81" s="11"/>
       <c r="CD81" s="11"/>
     </row>
-    <row r="82" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A82" s="53" t="s">
         <v>57</v>
       </c>
@@ -9118,7 +9330,7 @@
       </c>
       <c r="AA82" s="46"/>
     </row>
-    <row r="83" spans="1:82" ht="195" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:82" ht="195" x14ac:dyDescent="0.25">
       <c r="A83" s="53" t="s">
         <v>57</v>
       </c>
@@ -9137,7 +9349,7 @@
         <v>18</v>
       </c>
       <c r="J83" s="47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K83" s="109"/>
       <c r="L83" s="49"/>
@@ -9159,7 +9371,7 @@
       <c r="Z83" s="45"/>
       <c r="AA83" s="46"/>
     </row>
-    <row r="84" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="57" t="s">
         <v>323</v>
       </c>
@@ -9266,7 +9478,7 @@
       <c r="CC84" s="11"/>
       <c r="CD84" s="11"/>
     </row>
-    <row r="85" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="57" t="s">
         <v>323</v>
       </c>
@@ -9358,7 +9570,7 @@
       <c r="CC85" s="11"/>
       <c r="CD85" s="11"/>
     </row>
-    <row r="86" spans="1:82" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:82" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A86" s="35" t="s">
         <v>195</v>
       </c>
@@ -9379,7 +9591,7 @@
         <v>40</v>
       </c>
       <c r="J86" s="125" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K86" s="39"/>
       <c r="L86" s="40">
@@ -9425,7 +9637,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="87" spans="1:82" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:82" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="35" t="s">
         <v>195</v>
       </c>
@@ -9484,7 +9696,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:82" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:82" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="35" t="s">
         <v>195</v>
       </c>
@@ -9501,7 +9713,7 @@
         <v>18</v>
       </c>
       <c r="J88" s="38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K88" s="39"/>
       <c r="L88" s="40"/>
@@ -9544,7 +9756,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="1:82" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:82" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="57" t="s">
         <v>321</v>
       </c>
@@ -9659,7 +9871,7 @@
       <c r="CC89" s="33"/>
       <c r="CD89" s="33"/>
     </row>
-    <row r="90" spans="1:82" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:82" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="57" t="s">
         <v>321</v>
       </c>
@@ -9751,7 +9963,7 @@
       <c r="CC90" s="33"/>
       <c r="CD90" s="33"/>
     </row>
-    <row r="91" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="35" t="s">
         <v>319</v>
       </c>
@@ -9767,7 +9979,9 @@
         <v>128</v>
       </c>
       <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
+      <c r="H91" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="I91" s="35" t="s">
         <v>171</v>
       </c>
@@ -9799,7 +10013,7 @@
       <c r="Z91" s="45"/>
       <c r="AA91" s="62"/>
     </row>
-    <row r="92" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:82" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="35" t="s">
         <v>319</v>
       </c>
@@ -9811,12 +10025,14 @@
       <c r="E92" s="37"/>
       <c r="F92" s="37"/>
       <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
+      <c r="H92" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="I92" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J92" s="38" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K92" s="39"/>
       <c r="L92" s="40"/>
@@ -9836,7 +10052,7 @@
       <c r="Z92" s="45"/>
       <c r="AA92" s="62"/>
     </row>
-    <row r="93" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>317</v>
       </c>
@@ -9854,7 +10070,9 @@
       <c r="G93" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H93" s="21"/>
+      <c r="H93" s="21" t="s">
+        <v>429</v>
+      </c>
       <c r="I93" s="19" t="s">
         <v>367</v>
       </c>
@@ -9954,7 +10172,7 @@
       <c r="CC93" s="11"/>
       <c r="CD93" s="11"/>
     </row>
-    <row r="94" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:82" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>317</v>
       </c>
@@ -9970,7 +10188,9 @@
         <v>5</v>
       </c>
       <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
+      <c r="H94" s="21" t="s">
+        <v>429</v>
+      </c>
       <c r="I94" s="19" t="s">
         <v>8</v>
       </c>
@@ -10071,7 +10291,7 @@
       <c r="CC94" s="11"/>
       <c r="CD94" s="11"/>
     </row>
-    <row r="95" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>317</v>
       </c>
@@ -10083,12 +10303,14 @@
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
+      <c r="H95" s="21" t="s">
+        <v>429</v>
+      </c>
       <c r="I95" s="19" t="s">
         <v>18</v>
       </c>
       <c r="J95" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K95" s="58"/>
       <c r="L95" s="24"/>
@@ -10163,7 +10385,7 @@
       <c r="CC95" s="11"/>
       <c r="CD95" s="11"/>
     </row>
-    <row r="96" spans="1:82" ht="45" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:82" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="53" t="s">
         <v>313</v>
       </c>
@@ -10211,7 +10433,7 @@
       <c r="Z96" s="45"/>
       <c r="AA96" s="46"/>
     </row>
-    <row r="97" spans="1:82" ht="315" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:82" ht="315" x14ac:dyDescent="0.25">
       <c r="A97" s="53" t="s">
         <v>313</v>
       </c>
@@ -10230,7 +10452,7 @@
         <v>18</v>
       </c>
       <c r="J97" s="47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K97" s="109"/>
       <c r="L97" s="49"/>
@@ -10250,7 +10472,7 @@
       <c r="Z97" s="45"/>
       <c r="AA97" s="46"/>
     </row>
-    <row r="98" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>196</v>
       </c>
@@ -10349,7 +10571,7 @@
       <c r="CC98" s="11"/>
       <c r="CD98" s="11"/>
     </row>
-    <row r="99" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A99" s="86" t="s">
         <v>196</v>
       </c>
@@ -10403,7 +10625,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:82" ht="105" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:82" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="86" t="s">
         <v>196</v>
       </c>
@@ -10452,7 +10674,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:82" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:82" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
         <v>305</v>
       </c>
@@ -10557,7 +10779,7 @@
       <c r="CC101" s="11"/>
       <c r="CD101" s="11"/>
     </row>
-    <row r="102" spans="1:82" s="56" customFormat="1" ht="315" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:82" s="56" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>305</v>
       </c>
@@ -10576,7 +10798,7 @@
         <v>18</v>
       </c>
       <c r="J102" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K102" s="58"/>
       <c r="L102" s="130"/>
@@ -10651,7 +10873,7 @@
       <c r="CC102" s="11"/>
       <c r="CD102" s="11"/>
     </row>
-    <row r="103" spans="1:82" ht="60" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:82" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="53" t="s">
         <v>305</v>
       </c>
@@ -10711,7 +10933,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="104" spans="1:82" ht="60" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:82" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="53" t="s">
         <v>305</v>
       </c>
@@ -10765,7 +10987,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:82" ht="150" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:82" ht="150" x14ac:dyDescent="0.25">
       <c r="A105" s="53" t="s">
         <v>305</v>
       </c>
@@ -10816,7 +11038,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="106" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:82" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>305</v>
       </c>
@@ -10832,7 +11054,9 @@
         <v>23</v>
       </c>
       <c r="G106" s="63"/>
-      <c r="H106" s="63"/>
+      <c r="H106" s="63" t="s">
+        <v>438</v>
+      </c>
       <c r="I106" s="57" t="s">
         <v>366</v>
       </c>
@@ -10925,7 +11149,7 @@
       <c r="CC106" s="11"/>
       <c r="CD106" s="11"/>
     </row>
-    <row r="107" spans="1:82" s="56" customFormat="1" ht="150" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:82" s="56" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>305</v>
       </c>
@@ -10939,12 +11163,14 @@
       </c>
       <c r="F107" s="57"/>
       <c r="G107" s="63"/>
-      <c r="H107" s="63"/>
+      <c r="H107" s="63" t="s">
+        <v>438</v>
+      </c>
       <c r="I107" s="57" t="s">
         <v>26</v>
       </c>
       <c r="J107" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K107" s="65"/>
       <c r="L107" s="130"/>
@@ -11021,7 +11247,7 @@
       <c r="CC107" s="11"/>
       <c r="CD107" s="11"/>
     </row>
-    <row r="108" spans="1:82" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:82" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="137" t="s">
         <v>309</v>
       </c>
@@ -11037,7 +11263,9 @@
         <v>23</v>
       </c>
       <c r="G108" s="139"/>
-      <c r="H108" s="139"/>
+      <c r="H108" s="139" t="s">
+        <v>438</v>
+      </c>
       <c r="I108" s="139"/>
       <c r="J108" s="47"/>
       <c r="K108" s="140"/>
@@ -11071,7 +11299,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="109" spans="1:82" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:82" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="137" t="s">
         <v>309</v>
       </c>
@@ -11085,12 +11313,14 @@
       </c>
       <c r="F109" s="36"/>
       <c r="G109" s="139"/>
-      <c r="H109" s="139"/>
+      <c r="H109" s="139" t="s">
+        <v>438</v>
+      </c>
       <c r="I109" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J109" s="47" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K109" s="140"/>
       <c r="L109" s="135"/>
@@ -11110,7 +11340,7 @@
       <c r="Z109" s="45"/>
       <c r="AA109" s="138"/>
     </row>
-    <row r="110" spans="1:82" s="145" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:82" s="145" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="143" t="s">
         <v>311</v>
       </c>
@@ -11124,7 +11354,9 @@
       </c>
       <c r="F110" s="64"/>
       <c r="G110" s="64"/>
-      <c r="H110" s="64"/>
+      <c r="H110" s="64" t="s">
+        <v>438</v>
+      </c>
       <c r="I110" s="143" t="s">
         <v>137</v>
       </c>
@@ -11227,7 +11459,7 @@
       <c r="CC110" s="142"/>
       <c r="CD110" s="142"/>
     </row>
-    <row r="111" spans="1:82" s="145" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:82" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="143" t="s">
         <v>311</v>
       </c>
@@ -11239,7 +11471,9 @@
       <c r="E111" s="59"/>
       <c r="F111" s="64"/>
       <c r="G111" s="64"/>
-      <c r="H111" s="64"/>
+      <c r="H111" s="64" t="s">
+        <v>438</v>
+      </c>
       <c r="I111" s="19" t="s">
         <v>18</v>
       </c>
@@ -11319,22 +11553,37 @@
       <c r="CC111" s="142"/>
       <c r="CD111" s="142"/>
     </row>
-    <row r="112" spans="1:82" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="146"/>
-      <c r="B112" s="146"/>
+    <row r="112" spans="1:82" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="146" t="s">
+        <v>427</v>
+      </c>
+      <c r="B112" s="146" t="s">
+        <v>428</v>
+      </c>
       <c r="F112" s="146"/>
-      <c r="I112" s="146"/>
+      <c r="H112" s="142" t="s">
+        <v>429</v>
+      </c>
+      <c r="I112" s="146" t="s">
+        <v>51</v>
+      </c>
       <c r="J112" s="147"/>
       <c r="K112" s="148"/>
       <c r="L112" s="149"/>
-      <c r="M112" s="150"/>
-      <c r="N112" s="151"/>
+      <c r="M112" s="150">
+        <v>45505</v>
+      </c>
+      <c r="N112" s="151">
+        <v>46600</v>
+      </c>
       <c r="O112" s="152"/>
       <c r="P112" s="149"/>
       <c r="R112" s="146"/>
       <c r="S112" s="153"/>
       <c r="T112" s="153"/>
-      <c r="U112" s="153"/>
+      <c r="U112" s="153" t="s">
+        <v>10</v>
+      </c>
       <c r="V112" s="153"/>
       <c r="W112" s="153"/>
       <c r="X112" s="153"/>
@@ -11342,80 +11591,351 @@
       <c r="Z112" s="155"/>
       <c r="AA112" s="156"/>
     </row>
-    <row r="113" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A113" s="157" t="s">
+        <v>430</v>
+      </c>
+      <c r="B113" s="157" t="s">
+        <v>431</v>
+      </c>
       <c r="E113" s="142"/>
       <c r="F113" s="158"/>
-      <c r="I113" s="158"/>
+      <c r="H113" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="I113" s="158" t="s">
+        <v>434</v>
+      </c>
       <c r="J113" s="159"/>
       <c r="K113" s="160"/>
       <c r="L113" s="161"/>
-      <c r="M113" s="162"/>
-      <c r="N113" s="163"/>
+      <c r="M113" s="162">
+        <v>45667</v>
+      </c>
+      <c r="N113" s="163">
+        <v>46032</v>
+      </c>
       <c r="O113" s="162"/>
       <c r="P113" s="161"/>
       <c r="R113" s="158"/>
       <c r="S113" s="164"/>
       <c r="T113" s="164"/>
-      <c r="U113" s="164"/>
+      <c r="U113" s="164" t="s">
+        <v>432</v>
+      </c>
       <c r="V113" s="164"/>
       <c r="W113" s="164"/>
       <c r="X113" s="164"/>
       <c r="Y113" s="154"/>
     </row>
-    <row r="114" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A114" s="157" t="s">
+        <v>435</v>
+      </c>
+      <c r="B114" s="157" t="s">
+        <v>436</v>
+      </c>
       <c r="E114" s="142"/>
       <c r="F114" s="158"/>
-      <c r="I114" s="158"/>
+      <c r="H114" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I114" s="158" t="s">
+        <v>439</v>
+      </c>
       <c r="J114" s="159"/>
       <c r="K114" s="160"/>
       <c r="L114" s="161"/>
-      <c r="M114" s="162"/>
-      <c r="N114" s="163"/>
+      <c r="M114" s="162">
+        <v>45170</v>
+      </c>
+      <c r="N114" s="163">
+        <v>46167</v>
+      </c>
       <c r="O114" s="162"/>
       <c r="P114" s="161"/>
       <c r="R114" s="158"/>
       <c r="S114" s="164"/>
       <c r="T114" s="164"/>
-      <c r="U114" s="164"/>
+      <c r="U114" s="164" t="s">
+        <v>437</v>
+      </c>
       <c r="V114" s="164"/>
       <c r="W114" s="164"/>
       <c r="X114" s="164"/>
       <c r="Y114" s="154"/>
     </row>
-    <row r="115" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A115" s="157" t="s">
+        <v>440</v>
+      </c>
+      <c r="B115" s="157" t="s">
+        <v>441</v>
+      </c>
       <c r="E115" s="142"/>
       <c r="F115" s="158"/>
-      <c r="I115" s="158"/>
+      <c r="H115" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I115" s="158" t="s">
+        <v>8</v>
+      </c>
       <c r="J115" s="159"/>
       <c r="K115" s="160"/>
       <c r="L115" s="161"/>
-      <c r="M115" s="162"/>
-      <c r="N115" s="163"/>
+      <c r="M115" s="162">
+        <v>44868</v>
+      </c>
+      <c r="N115" s="163">
+        <v>45964</v>
+      </c>
       <c r="O115" s="162"/>
       <c r="P115" s="161"/>
       <c r="R115" s="158"/>
       <c r="S115" s="164"/>
       <c r="T115" s="164"/>
-      <c r="U115" s="164"/>
+      <c r="U115" s="164" t="s">
+        <v>417</v>
+      </c>
       <c r="V115" s="164"/>
       <c r="W115" s="164"/>
       <c r="X115" s="164"/>
       <c r="Y115" s="154"/>
     </row>
-    <row r="116" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A116" s="157" t="s">
+        <v>442</v>
+      </c>
+      <c r="B116" s="157" t="s">
+        <v>443</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I116" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="M116" s="169">
+        <v>45122</v>
+      </c>
+      <c r="N116" s="169">
+        <v>46948</v>
+      </c>
+      <c r="U116" s="165" t="s">
+        <v>458</v>
+      </c>
       <c r="Y116" s="154"/>
     </row>
-    <row r="117" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A117" s="157" t="s">
+        <v>444</v>
+      </c>
+      <c r="B117" s="157" t="s">
+        <v>445</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I117" s="157" t="s">
+        <v>446</v>
+      </c>
+      <c r="M117" s="169">
+        <v>45323</v>
+      </c>
+      <c r="N117" s="169">
+        <v>46783</v>
+      </c>
+      <c r="U117" s="165" t="s">
+        <v>13</v>
+      </c>
       <c r="Y117" s="154"/>
     </row>
-    <row r="118" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A118" s="157" t="s">
+        <v>447</v>
+      </c>
+      <c r="B118" s="157" t="s">
+        <v>448</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I118" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="M118" s="169">
+        <v>45352</v>
+      </c>
+      <c r="N118" s="169">
+        <v>46446</v>
+      </c>
+      <c r="U118" s="165" t="s">
+        <v>449</v>
+      </c>
       <c r="Y118" s="154"/>
     </row>
-    <row r="119" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A119" s="157" t="s">
+        <v>450</v>
+      </c>
+      <c r="B119" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I119" s="157" t="s">
+        <v>8</v>
+      </c>
+      <c r="M119" s="169">
+        <v>45200</v>
+      </c>
+      <c r="N119" s="169">
+        <v>46295</v>
+      </c>
+      <c r="U119" s="165" t="s">
+        <v>452</v>
+      </c>
       <c r="Y119" s="154"/>
     </row>
-    <row r="120" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A120" s="157" t="s">
+        <v>453</v>
+      </c>
+      <c r="B120" s="157" t="s">
+        <v>454</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I120" s="157" t="s">
+        <v>455</v>
+      </c>
+      <c r="M120" s="169">
+        <v>45516</v>
+      </c>
+      <c r="N120" s="169">
+        <v>46618</v>
+      </c>
+      <c r="U120" s="165" t="s">
+        <v>38</v>
+      </c>
       <c r="Y120" s="154"/>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A121" s="157" t="s">
+        <v>456</v>
+      </c>
+      <c r="B121" s="157" t="s">
+        <v>457</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I121" s="157" t="s">
+        <v>8</v>
+      </c>
+      <c r="M121" s="169">
+        <v>44201</v>
+      </c>
+      <c r="N121" s="169">
+        <v>45295</v>
+      </c>
+      <c r="U121" s="165" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A122" s="157" t="s">
+        <v>461</v>
+      </c>
+      <c r="B122" s="157" t="s">
+        <v>460</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I122" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="M122" s="169">
+        <v>44901</v>
+      </c>
+      <c r="N122" s="169">
+        <v>45996</v>
+      </c>
+      <c r="U122" s="165" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A123" s="157" t="s">
+        <v>462</v>
+      </c>
+      <c r="B123" s="157" t="s">
+        <v>463</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I123" s="157" t="s">
+        <v>171</v>
+      </c>
+      <c r="M123" s="169">
+        <v>44941</v>
+      </c>
+      <c r="N123" s="169">
+        <v>46036</v>
+      </c>
+      <c r="U123" s="165" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A124" s="157" t="s">
+        <v>464</v>
+      </c>
+      <c r="B124" s="157" t="s">
+        <v>465</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I124" s="157" t="s">
+        <v>434</v>
+      </c>
+      <c r="M124" s="169">
+        <v>44916</v>
+      </c>
+      <c r="N124" s="169">
+        <v>46011</v>
+      </c>
+      <c r="U124" s="165" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A125" s="157" t="s">
+        <v>466</v>
+      </c>
+      <c r="B125" s="157" t="s">
+        <v>467</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I125" s="157" t="s">
+        <v>8</v>
+      </c>
+      <c r="M125" s="169">
+        <v>44968</v>
+      </c>
+      <c r="N125" s="169">
+        <v>46063</v>
+      </c>
+      <c r="U125" s="165" t="s">
+        <v>469</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AA126" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -11506,17 +12026,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="2" max="19" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.88671875" customWidth="1"/>
+    <col min="2" max="19" width="10.6640625" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="21" max="21" width="46.85546875" customWidth="1"/>
-    <col min="22" max="47" width="10.7109375" customWidth="1"/>
-    <col min="48" max="48" width="4.7109375" customWidth="1"/>
+    <col min="21" max="21" width="46.88671875" customWidth="1"/>
+    <col min="22" max="47" width="10.6640625" customWidth="1"/>
+    <col min="48" max="48" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>63</v>
       </c>
@@ -11656,7 +12176,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" s="1" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>107</v>
       </c>
@@ -11796,7 +12316,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" s="1" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>81</v>
       </c>
@@ -11936,8 +12456,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:47" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:47" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" s="1" customFormat="1" ht="28.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:47" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -12023,7 +12543,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:47" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" s="1" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>107</v>
       </c>
@@ -12109,7 +12629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:47" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" s="1" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -12195,8 +12715,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:47" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:47" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" s="1" customFormat="1" ht="28.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:47" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>114</v>
       </c>
@@ -12288,7 +12808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:47" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" s="1" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>107</v>
       </c>
@@ -12380,7 +12900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:47" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" s="1" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
